--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H2">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.027884333333333</v>
+        <v>0.774269</v>
       </c>
       <c r="N2">
-        <v>6.083653</v>
+        <v>2.322807</v>
       </c>
       <c r="O2">
-        <v>0.07019303724735294</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="P2">
-        <v>0.07019303724735296</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="Q2">
-        <v>5.147447751367332</v>
+        <v>0.43620766922</v>
       </c>
       <c r="R2">
-        <v>46.327029762306</v>
+        <v>3.92586902298</v>
       </c>
       <c r="S2">
-        <v>0.07019303724735294</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="T2">
-        <v>0.07019303724735296</v>
+        <v>0.02746805195987118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H3">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.63013966666667</v>
+        <v>25.63013966666666</v>
       </c>
       <c r="N3">
-        <v>76.89041900000001</v>
+        <v>76.89041899999999</v>
       </c>
       <c r="O3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="P3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="Q3">
-        <v>65.05785494064867</v>
+        <v>14.43950808540666</v>
       </c>
       <c r="R3">
-        <v>585.520694465838</v>
+        <v>129.95557276866</v>
       </c>
       <c r="S3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="T3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H4">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.232082666666667</v>
+        <v>1.783575</v>
       </c>
       <c r="N4">
-        <v>3.696248</v>
+        <v>5.350725000000001</v>
       </c>
       <c r="O4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="P4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="Q4">
-        <v>3.127437323610666</v>
+        <v>1.0048304835</v>
       </c>
       <c r="R4">
-        <v>28.146935912496</v>
+        <v>9.0434743515</v>
       </c>
       <c r="S4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="T4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
     </row>
   </sheetData>
